--- a/dedications.xlsx
+++ b/dedications.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="7560" yWindow="1120" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dedications220513-1.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="148">
   <si>
     <t>Book</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Avignon</t>
   </si>
   <si>
-    <t>Jean De Cambis and 5 others  (D. D«Orsan, D. De Lagnes, Bartholomaeo Siffredy, Petro Carre, Claudio Sylvestro)</t>
-  </si>
-  <si>
     <t>Prodromus coptus</t>
   </si>
   <si>
@@ -126,12 +123,6 @@
     <t>Classis 5</t>
   </si>
   <si>
-    <t>Francesco Albici and 6 other (Professors of oriental languages and theologians: Philippo Quadagnolo, Bartholomeo a Pettorano, Antonio Aquilano, Ludovico Maraccio,Gianbattista Giattino, Abrahamo Ecchellensi )</t>
-  </si>
-  <si>
-    <t>http://echo.mpiwg-berlin.mpg.de/ECHOdocuView?url=/mpiwg/online/permanent/library/HRPA3W45/pageimg&amp;start=361&amp;mode=imagepath&amp;pn=370&amp;ww=0.5206&amp;wh=0.5206&amp;wy=0.2396</t>
-  </si>
-  <si>
     <t>Classis 6</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>Classis 7</t>
   </si>
   <si>
-    <t>Prince of Lichtenstein Ferdinand Johann, Johann Gans, Duke Johann Friedrich of Braunschweig-LŸneburg, count Johann Weickard von Auersperg</t>
-  </si>
-  <si>
     <t>Classis 8</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>Syntagma 4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Archduke Leopold Ignaz von Habsburg</t>
-  </si>
-  <si>
     <t>Syntagma 5</t>
   </si>
   <si>
@@ -351,9 +336,6 @@
     <t>Amsterdam, Antverp</t>
   </si>
   <si>
-    <t>Giovanni Paolo Oliva and Holy Roman Emperor Leopold I</t>
-  </si>
-  <si>
     <t>Magneticum Naturae Regnum</t>
   </si>
   <si>
@@ -412,16 +394,108 @@
   </si>
   <si>
     <t>Same?</t>
+  </si>
+  <si>
+    <t>Jean De Cambis</t>
+  </si>
+  <si>
+    <t>D. D'Orsan</t>
+  </si>
+  <si>
+    <t>D. De Lagnes</t>
+  </si>
+  <si>
+    <t>Bartholomaeo Siffredy</t>
+  </si>
+  <si>
+    <t>Petro Carre</t>
+  </si>
+  <si>
+    <t>Claudio Sylvestro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holy Roman Emperor Leopold I</t>
+  </si>
+  <si>
+    <t>Giovanni Paolo Oliva</t>
+  </si>
+  <si>
+    <t>Classis 1</t>
+  </si>
+  <si>
+    <t>Classis 0</t>
+  </si>
+  <si>
+    <t>Classis 2</t>
+  </si>
+  <si>
+    <t>Francesco Albici</t>
+  </si>
+  <si>
+    <t>Philippo Quadagnolo</t>
+  </si>
+  <si>
+    <t>Bartholomeo a Pettorano</t>
+  </si>
+  <si>
+    <t>Ludovico Maraccio</t>
+  </si>
+  <si>
+    <t>Gianbattista Giattino</t>
+  </si>
+  <si>
+    <t>Abrahamo Ecchellensi</t>
+  </si>
+  <si>
+    <t>Antonio Aquilano</t>
+  </si>
+  <si>
+    <t>Archduke Leopold Ignaz von Habsburg</t>
+  </si>
+  <si>
+    <t>Prince of Lichtenstein Ferdinand Johann</t>
+  </si>
+  <si>
+    <t>Johann Gans</t>
+  </si>
+  <si>
+    <t>Duke Johann Friedrich of Braunschweig-Lÿneburg</t>
+  </si>
+  <si>
+    <t>count Johann Weickard von Auersperg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,13 +518,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,9 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -831,1003 +924,1239 @@
         <v>1635</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1636</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
-      </c>
-      <c r="D9">
-        <v>1650</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>1652</v>
+        <v>1641</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>1653</v>
+        <v>1643</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>1653</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>1653</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>1653</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>1653</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21">
+        <v>1647</v>
+      </c>
+      <c r="E21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>1648</v>
+      </c>
+      <c r="E22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>1649</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>1650</v>
+      </c>
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>1651</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>1652</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
         <v>1653</v>
       </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
         <v>1653</v>
       </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23">
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
         <v>1653</v>
       </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>1654</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>1654</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>1654</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27">
-        <v>1654</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28">
-        <v>1654</v>
-      </c>
-      <c r="E28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29">
-        <v>1654</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>1654</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>1654</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>1654</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>1654</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>1654</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>1654</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>1654</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>1654</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D51">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>1669</v>
+        <v>1654</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>1671</v>
+        <v>1654</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>1675</v>
+        <v>1656</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>1675</v>
+        <v>1658</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>1676</v>
+        <v>1661</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>1678</v>
+        <v>1663</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D65">
-        <v>1679</v>
+        <v>1665</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>1679</v>
+        <v>1665</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67">
+        <v>1665</v>
+      </c>
+      <c r="E67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>1665</v>
+      </c>
+      <c r="E68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>1666</v>
+      </c>
+      <c r="E69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70">
+        <v>1667</v>
+      </c>
+      <c r="E70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71">
+        <v>1667</v>
+      </c>
+      <c r="E71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>1667</v>
+      </c>
+      <c r="E72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73">
+        <v>1669</v>
+      </c>
+      <c r="E73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74">
+        <v>1671</v>
+      </c>
+      <c r="E74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75">
+        <v>1675</v>
+      </c>
+      <c r="E75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76">
+        <v>1673</v>
+      </c>
+      <c r="E76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77">
+        <v>1675</v>
+      </c>
+      <c r="E77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78">
+        <v>1676</v>
+      </c>
+      <c r="E78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79">
+        <v>1678</v>
+      </c>
+      <c r="E79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80">
         <v>1679</v>
       </c>
-      <c r="E67" t="s">
-        <v>130</v>
+      <c r="E80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>1679</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>1679</v>
+      </c>
+      <c r="E82" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
